--- a/biology/Botanique/Riz_étuvé/Riz_étuvé.xlsx
+++ b/biology/Botanique/Riz_étuvé/Riz_étuvé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Riz_%C3%A9tuv%C3%A9</t>
+          <t>Riz_étuvé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le riz étuvé est un riz traité après récolte.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Riz_%C3%A9tuv%C3%A9</t>
+          <t>Riz_étuvé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Fabrication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa valeur nutritive est plus forte que celle du riz blanc, et se rapproche (sans toutefois l'atteindre) de celle du riz complet (« cargo »)[réf. nécessaire]. L'étuvage est un procédé qui s’effectue aujourd’hui dans le monde entier, la plupart du temps à l’aide des technologies les plus modernes. Il est décrit ci-dessous de manière très simplifiée, quelques croquis à l’appui. Le processus d'étuvage s’effectue sur du riz brut (paddy), lequel subit ensuite le traitement normal dans la rizerie où il est décortiqué puis transformé. Autrefois, on obtenait un effet d'étuvage atténué en traitant le riz à la vapeur puis en le faisant sécher au soleil[1]. Le riz étuvé est légèrement jaune, mais blanchit lors de la cuisson. Il reste en grains même en cas de cuisson prolongée.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa valeur nutritive est plus forte que celle du riz blanc, et se rapproche (sans toutefois l'atteindre) de celle du riz complet (« cargo »)[réf. nécessaire]. L'étuvage est un procédé qui s’effectue aujourd’hui dans le monde entier, la plupart du temps à l’aide des technologies les plus modernes. Il est décrit ci-dessous de manière très simplifiée, quelques croquis à l’appui. Le processus d'étuvage s’effectue sur du riz brut (paddy), lequel subit ensuite le traitement normal dans la rizerie où il est décortiqué puis transformé. Autrefois, on obtenait un effet d'étuvage atténué en traitant le riz à la vapeur puis en le faisant sécher au soleil. Le riz étuvé est légèrement jaune, mais blanchit lors de la cuisson. Il reste en grains même en cas de cuisson prolongée.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Riz_%C3%A9tuv%C3%A9</t>
+          <t>Riz_étuvé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les années 1910, le scientifique germano-britannique Erich Gustav Huzenlaub (1899-1964) et le scientifique britannique Francis Heron Rogers ont inventé une forme d'étuvage qui contenait davantage d'éléments nutritifs dans le riz, connu aujourd'hui sous le nom de procédé Huzenlaub.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Riz_%C3%A9tuv%C3%A9</t>
+          <t>Riz_étuvé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Représentation schématique du processus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			L’agrandissement montre de façon symbolique les vitamines et sels minéraux contenus dans le péricarpe.
